--- a/BOM和坐标文件/Remote_Control.xlsx
+++ b/BOM和坐标文件/Remote_Control.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
   <si>
     <t>Comment</t>
   </si>
@@ -204,16 +204,22 @@
     <t>L6</t>
   </si>
   <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>发光二极管</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED-0603</t>
+  </si>
+  <si>
     <t>Blue</t>
   </si>
   <si>
-    <t>发光二极管</t>
-  </si>
-  <si>
-    <t>LED1, LED2, LED3</t>
-  </si>
-  <si>
-    <t>LED-0603</t>
+    <t>LED2, LED3</t>
   </si>
   <si>
     <t>Numerical code tube</t>
@@ -798,7 +804,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,48 +1222,46 @@
       <c r="D22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -1265,28 +1269,30 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>78</v>
@@ -1294,19 +1300,17 @@
       <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>80</v>
@@ -1314,9 +1318,11 @@
       <c r="D27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1324,7 +1330,7 @@
         <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>82</v>
@@ -1332,11 +1338,9 @@
       <c r="D28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1344,7 +1348,7 @@
         <v>83</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>84</v>
@@ -1352,9 +1356,11 @@
       <c r="D29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1362,33 +1368,31 @@
         <v>85</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E30" s="4"/>
       <c r="F30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>19</v>
@@ -1399,10 +1403,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>91</v>
@@ -1410,9 +1414,11 @@
       <c r="D32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1420,7 +1426,7 @@
         <v>92</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>93</v>
@@ -1438,134 +1444,132 @@
         <v>94</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="B35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="3" t="s">
+    <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="E36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -1573,57 +1577,77 @@
     </row>
     <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="F41" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1631,7 +1655,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
 
